--- a/src/test/resources/TestDriver/TestSBO/Model/SBO_MODEL_EVENTS_All_Trigger.xlsx
+++ b/src/test/resources/TestDriver/TestSBO/Model/SBO_MODEL_EVENTS_All_Trigger.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\Downloads\TestSBO_Output\TestSBO_Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7029F2B-38CE-4211-AF36-A2D9127B9D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C32864-4A4B-4E9A-9D10-90FB791BD162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_Output" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="95">
   <si>
     <t>Transactions</t>
   </si>
@@ -136,78 +136,12 @@
     <t>ATTRIBUTE_INTEREST_RATE_PRIOR</t>
   </si>
   <si>
-    <t>PAYMENT CALC</t>
-  </si>
-  <si>
     <t>Interest Rate</t>
   </si>
   <si>
-    <t>Purchased UPB</t>
-  </si>
-  <si>
-    <t>Purchased Interest</t>
-  </si>
-  <si>
-    <t>ReplayDate</t>
-  </si>
-  <si>
-    <t>S.No</t>
-  </si>
-  <si>
-    <t>Effective Date</t>
-  </si>
-  <si>
-    <t>Beg UPB</t>
-  </si>
-  <si>
-    <t>Beg AIR</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Final Remit</t>
-  </si>
-  <si>
-    <t>Interest Paid</t>
-  </si>
-  <si>
-    <t>Principal Paid</t>
-  </si>
-  <si>
-    <t>End UPB</t>
-  </si>
-  <si>
     <t>Accrual</t>
   </si>
   <si>
-    <t>End AIR</t>
-  </si>
-  <si>
-    <t>ACCRUAL CALC</t>
-  </si>
-  <si>
-    <t>AIR Transactions</t>
-  </si>
-  <si>
-    <t>Interest Accrual</t>
-  </si>
-  <si>
-    <t>Interest Adjustment</t>
-  </si>
-  <si>
-    <t>Interest Payment</t>
-  </si>
-  <si>
-    <t>UPB Transactions</t>
-  </si>
-  <si>
-    <t>Principal Payment</t>
-  </si>
-  <si>
-    <t>Principal Adjustment</t>
-  </si>
-  <si>
     <t>TransactionDate</t>
   </si>
   <si>
@@ -302,6 +236,100 @@
   </si>
   <si>
     <t>TransactionName</t>
+  </si>
+  <si>
+    <t>ATTRIBUTE_ACCRUAL_CONVENTION_CURRENT</t>
+  </si>
+  <si>
+    <t>simple_interest(100000,0.10,30/360) → 833.33</t>
+  </si>
+  <si>
+    <t>simple_interest(BALANCES_ENDINGBALANCE_Unpaid_Principal_Balance,ATTRIBUTE_INTEREST_RATE_CURRENT,ATTRIBUTE_ACCRUAL_CONVENTION_CURRENT)</t>
+  </si>
+  <si>
+    <t>Do nothing/ Not needed</t>
+  </si>
+  <si>
+    <t>PAYMENT_INTEREST = MIN(REMIT_AMOUNT, AIR_BALANCE), PAYMENT_PRINCIPAL = MAX(REMIT_AMOUNT - PAYMENT_INTEREST, 0)</t>
+  </si>
+  <si>
+    <t>LOAN_AMOUNT = ATTRIBUTE_LOAN_AMOUNT_CURRENT
+INTEREST_RECEIVABLE = ATTRIBUTE_INTEREST_RECEIVABLE_CONSUMER_CURRENT</t>
+  </si>
+  <si>
+    <t>ORIGINATION EVENT</t>
+  </si>
+  <si>
+    <t>PURCHASE_UPB</t>
+  </si>
+  <si>
+    <t>PURCHASE_INTEREST</t>
+  </si>
+  <si>
+    <t>ExecutionDate</t>
+  </si>
+  <si>
+    <t>LoanId</t>
+  </si>
+  <si>
+    <t>PAYMENT EVENT</t>
+  </si>
+  <si>
+    <t>PAYMENT_INTEREST = MIN(REMIT_AMOUNT, AIR_BALANCE)</t>
+  </si>
+  <si>
+    <t>PAYMENT_PRINCIPAL = MAX(REMIT_AMOUNT - PAYMENT_INTEREST, 0)</t>
+  </si>
+  <si>
+    <t>PAYMENT_INTEREST</t>
+  </si>
+  <si>
+    <t>PAYMENT_PRINCIPAL</t>
+  </si>
+  <si>
+    <t>REMIT_AMOUNT</t>
+  </si>
+  <si>
+    <t>AIR_BALANCE</t>
+  </si>
+  <si>
+    <t>DIRECT PULL FROM INT_ACC</t>
+  </si>
+  <si>
+    <t>DIRECT PULL FROM PMT</t>
+  </si>
+  <si>
+    <t>DIRECT PULL FROM ORIG</t>
+  </si>
+  <si>
+    <t>TRANSACTION</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>FORMULA</t>
+  </si>
+  <si>
+    <t>UPB_BALANCE</t>
+  </si>
+  <si>
+    <t>INTEREST_ACCRUAL</t>
+  </si>
+  <si>
+    <t>INTEREST ACCRUAL EVENT / RATE CHANGE</t>
+  </si>
+  <si>
+    <t>INTEREST_RATE</t>
+  </si>
+  <si>
+    <t>IF (RC_IINTEREST_RATE = "", INT_ACC_INTEREST_RATE, RC_IINTEREST_RATE)</t>
+  </si>
+  <si>
+    <t>TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>(UPB_BALANCE x INTEREST_RATE )/36000</t>
   </si>
 </sst>
 </file>
@@ -314,7 +342,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,8 +373,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +412,14 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -429,48 +470,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -492,88 +498,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -585,6 +513,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -850,18 +796,19 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="3" max="3" width="73.85546875" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" customWidth="1"/>
@@ -871,22 +818,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="M1" s="4" t="s">
+      <c r="I1" s="31"/>
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="1">
         <f>P1/1200</f>
         <v>8.3333333333333332E-3</v>
       </c>
@@ -903,98 +850,98 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="1">
         <f>R1</f>
         <v>2.7777777777777778E-4</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>44592</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <f>A3</f>
         <v>44592</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>100000</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <f>E3</f>
         <v>100000</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>44592</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <f>A4</f>
         <v>44592</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>100</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="5">
         <f>E3</f>
         <v>100000</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="5">
         <f>E4</f>
         <v>100</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="1">
         <f>P4/1200</f>
         <v>1.2500000000000001E-2</v>
       </c>
@@ -1011,249 +958,323 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>44593</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>44593</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <f>H5*$N$2</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8">
+      <c r="G5" s="7"/>
+      <c r="H5" s="5">
         <f>H4</f>
         <v>100000</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="5">
         <f>I4+E5</f>
         <v>127.77777777777777</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="1">
         <f>R4</f>
         <v>4.1666666666666664E-4</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>44594</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>44594</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <f>H6*$N$2</f>
         <v>27.777777777777779</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8">
+      <c r="G6" s="7"/>
+      <c r="H6" s="5">
         <f>H5</f>
         <v>100000</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="8">
         <f>I5+E6</f>
         <v>155.55555555555554</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>44595</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>44595</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="7">
+      <c r="D7" s="1"/>
+      <c r="E7" s="4">
         <v>210</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8">
+      <c r="G7" s="7"/>
+      <c r="H7" s="5">
         <f>H6</f>
         <v>100000</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="9">
         <f>I6</f>
         <v>155.55555555555554</v>
       </c>
-      <c r="N7" s="8"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>44595</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>44595</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <f>-(E7-I7)</f>
         <v>-54.444444444444457</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="5">
         <f>H7+E8</f>
         <v>99945.555555555562</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="5">
         <f>I7</f>
         <v>155.55555555555554</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>44595</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>44595</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <f>-(I8)</f>
         <v>-155.55555555555554</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8">
+      <c r="G9" s="7"/>
+      <c r="H9" s="5">
         <f>H7+E8</f>
         <v>99945.555555555562</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="5">
         <f>I8+E9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>44595</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>44595</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <f>H10*$N$2</f>
         <v>27.762654320987657</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8">
+      <c r="G10" s="7"/>
+      <c r="H10" s="5">
         <f>H9</f>
         <v>99945.555555555562</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="5">
         <f>E10+I9</f>
         <v>27.762654320987657</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>44596</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>44596</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="6">
         <f>ROUND(H10*N2,4)</f>
         <v>27.762699999999999</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8">
+      <c r="G11" s="7"/>
+      <c r="H11" s="5">
         <f>H10</f>
         <v>99945.555555555562</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="5">
         <f>I10+E11</f>
         <v>55.52535432098766</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>44597</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>44597</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <f>H10*$N$5</f>
         <v>41.643981481481482</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8">
+      <c r="G12" s="7"/>
+      <c r="H12" s="5">
         <f>H11</f>
         <v>99945.555555555562</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="5">
         <f>I11+E12</f>
         <v>97.169335802469135</v>
       </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1273,7 +1294,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1287,29 +1308,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1325,7 +1346,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1338,107 +1359,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="18"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="18"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1453,7 +1474,9 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1468,35 +1491,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1511,9 +1534,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1526,29 +1547,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1561,17 +1582,17 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="87.5703125" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
@@ -1583,584 +1604,399 @@
     <col min="13" max="13" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="24">
-        <f>IF('RC'!A2=CALCULATION!B4,'RC'!E2/100,INT_ACC!E2/100)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="4">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <f>IF(INT_ACC!A2="","",INT_ACC!A2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>IF(INT_ACC!C2="","",INT_ACC!C2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>IF(INT_ACC!D2="","",INT_ACC!D2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="17">
         <f>IF(ORIG!E2="",0,ORIG!E2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="26">
-        <f>INT_ACC!C2</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="C8" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="17">
         <f>IF(ORIG!F2="",0,ORIG!F2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="C9" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="17">
+        <f>IF(PMT!E2="",0,PMT!E2)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="17">
+        <f>IF(INT_ACC!G2="",0,INT_ACC!G2)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="17">
+        <f>MIN(B14,B15)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="17">
+        <f>MAX(B14-B16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="17">
+        <f>IF(INT_ACC!F2="",0,INT_ACC!F2)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="17">
+        <f>IF('RC'!E2="",INT_ACC!E2,'RC'!E2)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="17">
+        <f>(B22*B23)/36000</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="27" t="str">
-        <f>IF(INT_ACC!A2="","",(INT_ACC!A2))</f>
-        <v/>
-      </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="27" t="str">
-        <f>IF(OR(MIN(PMT!$B$2:$B$13)=B4,MIN(PMT!$B$2:$B$13)=0),"",MIN(PMT!$B$2:$B$13))</f>
-        <v/>
-      </c>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="29" t="str">
-        <f>B4</f>
-        <v/>
-      </c>
-      <c r="C8" s="30">
-        <f>INT_ACC!F2</f>
+      <c r="B28" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="str">
+        <f>IF(E29="","",$B$1)</f>
+        <v/>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f>IF(E29="","",$B$1)</f>
+        <v/>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>IF($E29="","",$B$2)</f>
+        <v/>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>IF($E29="","","Servicing_Interest_Accrual")</f>
+        <v>Servicing_Interest_Accrual</v>
+      </c>
+      <c r="E29" s="23">
+        <f>ROUND(B24,4)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="30">
-        <f>INT_ACC!G2</f>
+      <c r="F29" s="21" t="str">
+        <f>IF($E29="","",$B$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="str">
+        <f>IF(E30="","",$B$1)</f>
+        <v/>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f t="shared" ref="B30:B33" si="0">IF(E30="","",$B$1)</f>
+        <v/>
+      </c>
+      <c r="C30" s="21" t="str">
+        <f>IF($E30="","",$B$2)</f>
+        <v/>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>IF($E30="","","Payment_Interest")</f>
+        <v>Payment_Interest</v>
+      </c>
+      <c r="E30" s="36">
+        <f>ROUND(B16,4)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="30" t="str">
-        <f>IF(B8="","",IF(B9="",0,(B9-B8)-1))</f>
-        <v/>
-      </c>
-      <c r="F8" s="30">
-        <f>PMT!E2</f>
+      <c r="F30" s="21" t="str">
+        <f>IF($E30="","",$B$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="str">
+        <f>IF(E31="","",$B$1)</f>
+        <v/>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C31" s="21" t="str">
+        <f>IF($E31="","",$B$2)</f>
+        <v/>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>IF($E31="","","Payment_UPB")</f>
+        <v>Payment_UPB</v>
+      </c>
+      <c r="E31" s="36">
+        <f>ROUND(B17,4)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="30" t="str">
-        <f>IF(B8="","",IF(F8&lt;D8,F8,D8))</f>
-        <v/>
-      </c>
-      <c r="H8" s="31" t="str">
-        <f>IF(B8="","",F8-G8)</f>
-        <v/>
-      </c>
-      <c r="I8" s="32" t="str">
-        <f>IFERROR(IF(B8="","",C8-H8),0)</f>
-        <v/>
-      </c>
-      <c r="J8" s="33" t="str">
-        <f>IFERROR(IF(B8="","",(I8*$B$2)/360),0)</f>
-        <v/>
-      </c>
-      <c r="K8" s="31" t="str">
-        <f>IFERROR(IF(B8="","",D8-G8+J8),0)</f>
-        <v/>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="18"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="G9" s="39">
-        <f>IFERROR(IF(G8="",0,G8),0)</f>
+      <c r="F31" s="21" t="str">
+        <f>IF($E31="","",$B$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="str">
+        <f>IF(E32="","",$B$1)</f>
+        <v/>
+      </c>
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C32" s="21" t="str">
+        <f>IF($E32="","",$B$2)</f>
+        <v/>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f>IF($E32="","","Purchase_UPB")</f>
+        <v>Purchase_UPB</v>
+      </c>
+      <c r="E32" s="36">
+        <f>ROUND(B8,4)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="39">
-        <f>IFERROR(IF(H8="",0,H8),0)</f>
+      <c r="F32" s="21" t="str">
+        <f>IF($E32="","",$B$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="str">
+        <f>IF(E33="","",$B$1)</f>
+        <v/>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C33" s="21" t="str">
+        <f>IF($E33="","",$B$2)</f>
+        <v/>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f>IF($E33="","","Purchase_Interest")</f>
+        <v>Purchase_Interest</v>
+      </c>
+      <c r="E33" s="36">
+        <f>ROUND(B9,4)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="39">
-        <f>IF(I8="",0,I8)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="39">
-        <f>IF(K8="",0,K8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
-        <v>1</v>
-      </c>
-      <c r="B14" s="29" t="str">
-        <f>IF(INT_ACC!B2="","",INT_ACC!B2)</f>
-        <v/>
-      </c>
-      <c r="C14" s="43">
-        <f>VALUE(INT_ACC!F2)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="43">
-        <f>VALUE(INT_ACC!G2)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="30" t="str">
-        <f>IF(B14="","",IF(B15="",0,(B15-B14)-1))</f>
-        <v/>
-      </c>
-      <c r="F14" s="30">
-        <v>0</v>
-      </c>
-      <c r="G14" s="30">
-        <f>G9</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="30">
-        <f>H9</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="44">
-        <f>C14-H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="45">
-        <f>IF(B14="",0,(I14*$B$2)/360)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="46">
-        <f>D14+J14-G14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="48">
-        <f>J14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="49"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="50">
-        <f>G9</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="50">
-        <f>E3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="52">
-        <f>H9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="53"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="53">
-        <f>E2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="str">
-        <f>IF(E2=0,B4,"")</f>
-        <v/>
-      </c>
-      <c r="B29" s="6" t="str">
-        <f>A29</f>
-        <v/>
-      </c>
-      <c r="C29" s="4" t="str">
-        <f t="shared" ref="C29:C35" si="0">IF(A29="","",$B$3)</f>
-        <v/>
-      </c>
-      <c r="D29" s="4" t="str">
-        <f>IF(A29="","","Servicing_Interest_Accrual")</f>
-        <v/>
-      </c>
-      <c r="E29" s="55" t="str">
-        <f>IF(A29="","",ROUND(B17,4))</f>
-        <v/>
-      </c>
-      <c r="F29" s="4" t="str">
-        <f>IF(A29="","",INT_ACC!$D$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="str">
-        <f>IF(ROUND(B18,4)=0,"",$B$4)</f>
-        <v/>
-      </c>
-      <c r="B30" s="6" t="str">
-        <f t="shared" ref="B30:B35" si="1">IF(A30="","",A30)</f>
-        <v/>
-      </c>
-      <c r="C30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D30" s="4" t="str">
-        <f>IF(A30="","","Interest_Adjustment")</f>
-        <v/>
-      </c>
-      <c r="E30" s="56" t="str">
-        <f>IF(A30="","",ROUND(B18,4))</f>
-        <v/>
-      </c>
-      <c r="F30" s="4" t="str">
-        <f>IF(A30="","",INT_ACC!$D$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="str">
-        <f>IF(ROUND(B19,4)=0,"",$B$4)</f>
-        <v/>
-      </c>
-      <c r="B31" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D31" s="4" t="str">
-        <f>IF(A31="","","Payment_Interest")</f>
-        <v/>
-      </c>
-      <c r="E31" s="56" t="str">
-        <f>IF(A31="","",ROUND(B19,4)*-1)</f>
-        <v/>
-      </c>
-      <c r="F31" s="4" t="str">
-        <f>IF(A31="","",INT_ACC!$D$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="str">
-        <f>IF(ROUND(B23,4)=0,"",$B$4)</f>
-        <v/>
-      </c>
-      <c r="B32" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D32" s="4" t="str">
-        <f>IF(A32="","","Payment_UPB")</f>
-        <v/>
-      </c>
-      <c r="E32" s="56" t="str">
-        <f>IF(A32="","",ROUND(B23,4)*-1)</f>
-        <v/>
-      </c>
-      <c r="F32" s="4" t="str">
-        <f>IF(A32="","",INT_ACC!$D$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="str">
-        <f>IF(ROUND(B24,4)=0,"",$B$4)</f>
-        <v/>
-      </c>
-      <c r="B33" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D33" s="4" t="str">
-        <f>IF(A33="","","Principal_Adjustment")</f>
-        <v/>
-      </c>
-      <c r="E33" s="56" t="str">
-        <f>IF(A33="","",ROUND(B24,4))</f>
-        <v/>
-      </c>
-      <c r="F33" s="4" t="str">
-        <f>IF(A33="","",INT_ACC!$D$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="str">
-        <f>IF(ROUND(B25,4)=0,"",$B$4)</f>
-        <v/>
-      </c>
-      <c r="B34" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D34" s="4" t="str">
-        <f>IF(A34="","","Purchase_UPB")</f>
-        <v/>
-      </c>
-      <c r="E34" s="56" t="str">
-        <f>IF(A34="","",ROUND(B25,4))</f>
-        <v/>
-      </c>
-      <c r="F34" s="4" t="str">
-        <f>IF(A34="","",INT_ACC!$D$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="str">
-        <f>IF(ROUND(B20,4)=0,"",$B$4)</f>
-        <v/>
-      </c>
-      <c r="B35" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D35" s="4" t="str">
-        <f>IF(A35="","","Purchase_Interest")</f>
-        <v/>
-      </c>
-      <c r="E35" s="56" t="str">
-        <f>IF(A35="","",ROUND(B20,4))</f>
-        <v/>
-      </c>
-      <c r="F35" s="4" t="str">
-        <f>IF(A35="","",INT_ACC!$D$2)</f>
+      <c r="F33" s="21" t="str">
+        <f>IF($E33="","",$B$3)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A22:B22"/>
+  <mergeCells count="4">
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A19:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2171,8 +2007,8 @@
   </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2188,51 +2024,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+      <c r="A1" s="33">
         <v>44592</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>56</v>
+      <c r="A2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>58</v>
+      <c r="E3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="15">
         <v>44592</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="15">
         <v>44592</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>59</v>
+      <c r="C4" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2245,49 +2081,49 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>60</v>
+      <c r="A6" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="E7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="15">
         <v>44592</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="15">
         <v>44592</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>59</v>
+      <c r="C8" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2306,16 +2142,16 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="33">
         <v>44593</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
@@ -2324,45 +2160,45 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>60</v>
+      <c r="A13" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>64</v>
+      <c r="E14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>59</v>
+      <c r="A15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2381,67 +2217,67 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="A18" s="33">
         <v>44594</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="57"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>60</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>64</v>
+      <c r="E21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="15">
         <v>44594</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="15">
         <v>44594</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>59</v>
+      <c r="C22" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2460,57 +2296,57 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="A25" s="33">
         <v>44595</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>60</v>
+      <c r="A27" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>64</v>
+      <c r="E28" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="15">
         <v>44595</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="15">
         <v>44595</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>59</v>
+      <c r="C29" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2529,96 +2365,96 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>66</v>
+      <c r="A31" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>67</v>
+      <c r="E32" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="18">
+      <c r="A33" s="15">
         <v>44595</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="15">
         <v>44595</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>59</v>
+      <c r="C33" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="17">
         <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="A36" s="33">
         <v>44596</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>60</v>
+      <c r="A38" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>64</v>
+      <c r="E39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="18">
+      <c r="A40" s="15">
         <v>44596</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="15">
         <v>44596</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>59</v>
+      <c r="C40" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2638,57 +2474,57 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="A43" s="33">
         <v>44597</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>60</v>
+      <c r="A45" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>64</v>
+      <c r="E46" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="18">
+      <c r="A47" s="15">
         <v>44597</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="15">
         <v>44597</v>
       </c>
-      <c r="C47" s="19" t="s">
-        <v>59</v>
+      <c r="C47" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2707,39 +2543,39 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>68</v>
+      <c r="A49" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>69</v>
+      <c r="E50" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="18">
+      <c r="A51" s="15">
         <v>44596</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="15">
         <v>44596</v>
       </c>
-      <c r="C51" s="19" t="s">
-        <v>59</v>
+      <c r="C51" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2784,23 +2620,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>60</v>
+      <c r="A1" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2808,39 +2644,39 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>66</v>
+      <c r="A11" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -2848,7 +2684,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2863,76 +2699,76 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>56</v>
+      <c r="A20" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>68</v>
+      <c r="A28" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2946,222 +2782,170 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="22" style="19" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="19"/>
+    <col min="1" max="1" width="33" style="16" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="22" style="16" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="str">
+      <c r="A2" s="26" t="str">
         <f>CALCULATION!A29</f>
         <v/>
       </c>
-      <c r="B2" s="59" t="str">
+      <c r="B2" s="26" t="str">
         <f>CALCULATION!B29</f>
         <v/>
       </c>
-      <c r="C2" s="59" t="str">
+      <c r="C2" s="26" t="str">
         <f>CALCULATION!C29</f>
         <v/>
       </c>
-      <c r="D2" s="59" t="str">
-        <f>CALCULATION!D29</f>
-        <v/>
-      </c>
-      <c r="E2" s="60" t="str">
-        <f>CALCULATION!E29</f>
-        <v/>
-      </c>
-      <c r="F2" s="61" t="str">
+      <c r="D2" s="26" t="str">
+        <f>IF(A2="","",CALCULATION!D29)</f>
+        <v/>
+      </c>
+      <c r="E2" s="27" t="str">
+        <f>IF(A2="","",CALCULATION!E29)</f>
+        <v/>
+      </c>
+      <c r="F2" s="28" t="str">
         <f>CALCULATION!F29</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="str">
+      <c r="A3" s="26" t="str">
         <f>CALCULATION!A30</f>
         <v/>
       </c>
-      <c r="B3" s="59" t="str">
+      <c r="B3" s="26" t="str">
         <f>CALCULATION!B30</f>
         <v/>
       </c>
-      <c r="C3" s="59" t="str">
+      <c r="C3" s="26" t="str">
         <f>CALCULATION!C30</f>
         <v/>
       </c>
-      <c r="D3" s="59" t="str">
-        <f>CALCULATION!D30</f>
-        <v/>
-      </c>
-      <c r="E3" s="60" t="str">
-        <f>CALCULATION!E30</f>
-        <v/>
-      </c>
-      <c r="F3" s="61" t="str">
+      <c r="D3" s="26" t="str">
+        <f>IF(A3="","",CALCULATION!D30)</f>
+        <v/>
+      </c>
+      <c r="E3" s="27" t="str">
+        <f>IF(A3="","",CALCULATION!E30)</f>
+        <v/>
+      </c>
+      <c r="F3" s="28" t="str">
         <f>CALCULATION!F30</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="str">
+      <c r="A4" s="26" t="str">
         <f>CALCULATION!A31</f>
         <v/>
       </c>
-      <c r="B4" s="59" t="str">
+      <c r="B4" s="26" t="str">
         <f>CALCULATION!B31</f>
         <v/>
       </c>
-      <c r="C4" s="59" t="str">
+      <c r="C4" s="26" t="str">
         <f>CALCULATION!C31</f>
         <v/>
       </c>
-      <c r="D4" s="59" t="str">
-        <f>CALCULATION!D31</f>
-        <v/>
-      </c>
-      <c r="E4" s="60" t="str">
-        <f>CALCULATION!E31</f>
-        <v/>
-      </c>
-      <c r="F4" s="61" t="str">
+      <c r="D4" s="26" t="str">
+        <f>IF(A4="","",CALCULATION!D31)</f>
+        <v/>
+      </c>
+      <c r="E4" s="27" t="str">
+        <f>IF(A4="","",CALCULATION!E31)</f>
+        <v/>
+      </c>
+      <c r="F4" s="28" t="str">
         <f>CALCULATION!F31</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="str">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="str">
         <f>CALCULATION!A32</f>
         <v/>
       </c>
-      <c r="B5" s="59" t="str">
+      <c r="B5" s="26" t="str">
         <f>CALCULATION!B32</f>
         <v/>
       </c>
-      <c r="C5" s="59" t="str">
+      <c r="C5" s="26" t="str">
         <f>CALCULATION!C32</f>
         <v/>
       </c>
-      <c r="D5" s="59" t="str">
-        <f>CALCULATION!D32</f>
-        <v/>
-      </c>
-      <c r="E5" s="60" t="str">
-        <f>CALCULATION!E32</f>
-        <v/>
-      </c>
-      <c r="F5" s="61" t="str">
+      <c r="D5" s="26" t="str">
+        <f>IF(A5="","",CALCULATION!D32)</f>
+        <v/>
+      </c>
+      <c r="E5" s="27" t="str">
+        <f>IF(A5="","",CALCULATION!E32)</f>
+        <v/>
+      </c>
+      <c r="F5" s="28" t="str">
         <f>CALCULATION!F32</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="str">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="str">
         <f>CALCULATION!A33</f>
         <v/>
       </c>
-      <c r="B6" s="59" t="str">
+      <c r="B6" s="26" t="str">
         <f>CALCULATION!B33</f>
         <v/>
       </c>
-      <c r="C6" s="59" t="str">
+      <c r="C6" s="26" t="str">
         <f>CALCULATION!C33</f>
         <v/>
       </c>
-      <c r="D6" s="59" t="str">
-        <f>CALCULATION!D33</f>
-        <v/>
-      </c>
-      <c r="E6" s="60" t="str">
-        <f>CALCULATION!E33</f>
-        <v/>
-      </c>
-      <c r="F6" s="61" t="str">
+      <c r="D6" s="26" t="str">
+        <f>IF(A6="","",CALCULATION!D33)</f>
+        <v/>
+      </c>
+      <c r="E6" s="27" t="str">
+        <f>IF(A6="","",CALCULATION!E33)</f>
+        <v/>
+      </c>
+      <c r="F6" s="28" t="str">
         <f>CALCULATION!F33</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="str">
-        <f>CALCULATION!A34</f>
-        <v/>
-      </c>
-      <c r="B7" s="59" t="str">
-        <f>CALCULATION!B34</f>
-        <v/>
-      </c>
-      <c r="C7" s="59" t="str">
-        <f>CALCULATION!C34</f>
-        <v/>
-      </c>
-      <c r="D7" s="59" t="str">
-        <f>CALCULATION!D34</f>
-        <v/>
-      </c>
-      <c r="E7" s="60" t="str">
-        <f>CALCULATION!E34</f>
-        <v/>
-      </c>
-      <c r="F7" s="61" t="str">
-        <f>CALCULATION!F34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="str">
-        <f>CALCULATION!A35</f>
-        <v/>
-      </c>
-      <c r="B8" s="59" t="str">
-        <f>CALCULATION!B35</f>
-        <v/>
-      </c>
-      <c r="C8" s="59" t="str">
-        <f>CALCULATION!C35</f>
-        <v/>
-      </c>
-      <c r="D8" s="59" t="str">
-        <f>CALCULATION!D35</f>
-        <v/>
-      </c>
-      <c r="E8" s="60" t="str">
-        <f>CALCULATION!E35</f>
-        <v/>
-      </c>
-      <c r="F8" s="61" t="str">
-        <f>CALCULATION!F35</f>
         <v/>
       </c>
     </row>

--- a/src/test/resources/TestDriver/TestSBO/Model/SBO_MODEL_EVENTS_All_Trigger.xlsx
+++ b/src/test/resources/TestDriver/TestSBO/Model/SBO_MODEL_EVENTS_All_Trigger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C32864-4A4B-4E9A-9D10-90FB791BD162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF159D4-1002-40EA-80F4-22A2222CBFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_Output" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="96">
   <si>
     <t>Transactions</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>(UPB_BALANCE x INTEREST_RATE )/36000</t>
+  </si>
+  <si>
+    <t>DIRECT PULL FROM INT_ACC - PAYMENT_PRINCIPAL</t>
   </si>
 </sst>
 </file>
@@ -517,6 +520,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -524,11 +532,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -818,18 +821,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="H1" s="31" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" s="34"/>
       <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1534,7 +1537,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1584,8 +1587,8 @@
   </sheetPr>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1605,7 +1608,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="3" t="str">
@@ -1614,7 +1617,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="3" t="str">
@@ -1623,7 +1626,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3" t="str">
@@ -1633,81 +1636,81 @@
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="32" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="31" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="17">
         <f>IF(ORIG!E2="",0,ORIG!E2)</f>
         <v>0</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="31" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="31" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="17">
         <f>IF(ORIG!F2="",0,ORIG!F2)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="31" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="32" t="s">
         <v>87</v>
       </c>
       <c r="N13" s="8"/>
@@ -1715,128 +1718,128 @@
       <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="31" t="s">
         <v>80</v>
       </c>
       <c r="B14" s="17">
         <f>IF(PMT!E2="",0,PMT!E2)</f>
         <v>0</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="31" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B15" s="17">
         <f>IF(INT_ACC!G2="",0,INT_ACC!G2)</f>
         <v>0</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="31" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="17">
-        <f>MIN(B14,B15)</f>
+        <f>-MIN(B14,B15)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="31" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="31" t="s">
         <v>79</v>
       </c>
       <c r="B17" s="17">
-        <f>MAX(B14-B16,0)</f>
+        <f>-MAX(B14-B16,0)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="31" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="32" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="31" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="17">
-        <f>IF(INT_ACC!F2="",0,INT_ACC!F2)</f>
+        <f>IF(INT_ACC!F2="",0,INT_ACC!F2)+B17</f>
         <v>0</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>82</v>
+      <c r="C22" s="31" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>91</v>
       </c>
       <c r="B23" s="17">
         <f>IF('RC'!E2="",INT_ACC!E2,'RC'!E2)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="31" t="s">
         <v>89</v>
       </c>
       <c r="B24" s="17">
         <f>(B22*B23)/36000</f>
         <v>0</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="31" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
@@ -1901,7 +1904,7 @@
         <f>IF($E30="","","Payment_Interest")</f>
         <v>Payment_Interest</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="33">
         <f>ROUND(B16,4)</f>
         <v>0</v>
       </c>
@@ -1927,7 +1930,7 @@
         <f>IF($E31="","","Payment_UPB")</f>
         <v>Payment_UPB</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="33">
         <f>ROUND(B17,4)</f>
         <v>0</v>
       </c>
@@ -1953,7 +1956,7 @@
         <f>IF($E32="","","Purchase_UPB")</f>
         <v>Purchase_UPB</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="33">
         <f>ROUND(B8,4)</f>
         <v>0</v>
       </c>
@@ -1979,7 +1982,7 @@
         <f>IF($E33="","","Purchase_Interest")</f>
         <v>Purchase_Interest</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="33">
         <f>ROUND(B9,4)</f>
         <v>0</v>
       </c>
@@ -2024,16 +2027,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="33">
+      <c r="A1" s="36">
         <v>44592</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2142,16 +2145,16 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="33">
+      <c r="A11" s="36">
         <v>44593</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
@@ -2217,16 +2220,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="33">
+      <c r="A18" s="36">
         <v>44594</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="24"/>
@@ -2296,16 +2299,16 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A25" s="33">
+      <c r="A25" s="36">
         <v>44595</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -2404,16 +2407,16 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A36" s="33">
+      <c r="A36" s="36">
         <v>44596</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -2474,16 +2477,16 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A43" s="33">
+      <c r="A43" s="36">
         <v>44597</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">

--- a/src/test/resources/TestDriver/TestSBO/Model/SBO_MODEL_EVENTS_All_Trigger.xlsx
+++ b/src/test/resources/TestDriver/TestSBO/Model/SBO_MODEL_EVENTS_All_Trigger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestSBO\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF159D4-1002-40EA-80F4-22A2222CBFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B661A5B-9172-4341-B4C4-494DE5CF900A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_Output" sheetId="1" r:id="rId1"/>
@@ -275,12 +275,6 @@
     <t>PAYMENT EVENT</t>
   </si>
   <si>
-    <t>PAYMENT_INTEREST = MIN(REMIT_AMOUNT, AIR_BALANCE)</t>
-  </si>
-  <si>
-    <t>PAYMENT_PRINCIPAL = MAX(REMIT_AMOUNT - PAYMENT_INTEREST, 0)</t>
-  </si>
-  <si>
     <t>PAYMENT_INTEREST</t>
   </si>
   <si>
@@ -333,6 +327,12 @@
   </si>
   <si>
     <t>DIRECT PULL FROM INT_ACC - PAYMENT_PRINCIPAL</t>
+  </si>
+  <si>
+    <t>PAYMENT_INTEREST = MIN(REMIT_AMOUNT, AIR_BALANCE) * -1</t>
+  </si>
+  <si>
+    <t>PAYMENT_PRINCIPAL = MAX(REMIT_AMOUNT + PAYMENT_INTEREST, 0) * -1</t>
   </si>
 </sst>
 </file>
@@ -1348,9 +1348,7 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1587,8 +1585,8 @@
   </sheetPr>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1653,13 +1651,13 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>85</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1671,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1683,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1705,13 +1703,13 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>85</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>87</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="20"/>
@@ -1719,56 +1717,56 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" s="17">
         <f>IF(PMT!E2="",0,PMT!E2)</f>
         <v>0</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="17">
         <f>IF(INT_ACC!G2="",0,INT_ACC!G2)</f>
         <v>0</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="17">
         <f>-MIN(B14,B15)</f>
         <v>0</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" s="17">
-        <f>-MAX(B14-B16,0)</f>
+        <f>-MAX(B14+B16,0)</f>
         <v>0</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -1784,56 +1782,56 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>85</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B22" s="17">
         <f>IF(INT_ACC!F2="",0,INT_ACC!F2)+B17</f>
         <v>0</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B23" s="17">
         <f>IF('RC'!E2="",INT_ACC!E2,'RC'!E2)</f>
         <v>0</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="17">
         <f>(B22*B23)/36000</f>
         <v>0</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
@@ -2010,8 +2008,8 @@
   </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:F51"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
